--- a/data/pca/factorExposure/factorExposure_2018-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.07589661023312948</v>
+        <v>0.051867052357153</v>
       </c>
       <c r="C2">
-        <v>-0.05320926523814879</v>
+        <v>0.007613782063813477</v>
       </c>
       <c r="D2">
-        <v>0.06875825699700963</v>
+        <v>-0.03358831782942188</v>
       </c>
       <c r="E2">
-        <v>0.002529446363083458</v>
+        <v>-0.01401426141790734</v>
       </c>
       <c r="F2">
-        <v>-0.1207949704511741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03744881688712363</v>
+      </c>
+      <c r="G2">
+        <v>-0.1007045161748445</v>
+      </c>
+      <c r="H2">
+        <v>0.07276810269307833</v>
+      </c>
+      <c r="I2">
+        <v>-0.07377229213266369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1945807386929416</v>
+        <v>0.130228869086022</v>
       </c>
       <c r="C3">
-        <v>0.01754881830836543</v>
+        <v>-0.03805876628006382</v>
       </c>
       <c r="D3">
-        <v>0.1213982682273786</v>
+        <v>-0.06414314758100331</v>
       </c>
       <c r="E3">
-        <v>0.02143295102281591</v>
+        <v>0.0006370472345887076</v>
       </c>
       <c r="F3">
-        <v>-0.398314518150538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01038802529973278</v>
+      </c>
+      <c r="G3">
+        <v>-0.3564799380488883</v>
+      </c>
+      <c r="H3">
+        <v>0.273784734589306</v>
+      </c>
+      <c r="I3">
+        <v>-0.06417903415234481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07281697820496684</v>
+        <v>0.05971281744507611</v>
       </c>
       <c r="C4">
-        <v>-0.02958738060556554</v>
+        <v>0.005249686404074513</v>
       </c>
       <c r="D4">
-        <v>0.05886207116526437</v>
+        <v>-0.04285431505755888</v>
       </c>
       <c r="E4">
-        <v>0.05360138318648144</v>
+        <v>0.0192581494502634</v>
       </c>
       <c r="F4">
-        <v>-0.05282521500829025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05809938917495613</v>
+      </c>
+      <c r="G4">
+        <v>-0.06187029153632539</v>
+      </c>
+      <c r="H4">
+        <v>0.02542135863698366</v>
+      </c>
+      <c r="I4">
+        <v>-0.04420865153831022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0056147902053059</v>
+        <v>0.02907232410820668</v>
       </c>
       <c r="C6">
-        <v>-0.001495816019618334</v>
+        <v>0.004113918413823589</v>
       </c>
       <c r="D6">
-        <v>0.0002672627818889247</v>
+        <v>-0.02030956546024742</v>
       </c>
       <c r="E6">
-        <v>-0.005387569898053011</v>
+        <v>0.0054321987553979</v>
       </c>
       <c r="F6">
-        <v>-0.002181152362007166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02142300702672931</v>
+      </c>
+      <c r="G6">
+        <v>-0.01826252713816226</v>
+      </c>
+      <c r="H6">
+        <v>-0.03332127885100301</v>
+      </c>
+      <c r="I6">
+        <v>0.01253798774822679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03393649001338432</v>
+        <v>0.03126531946259587</v>
       </c>
       <c r="C7">
-        <v>-0.02192656367667512</v>
+        <v>0.001894402088965004</v>
       </c>
       <c r="D7">
-        <v>0.0449296234788363</v>
+        <v>-0.009519474631774187</v>
       </c>
       <c r="E7">
-        <v>0.009266463001989493</v>
+        <v>0.03651699828552075</v>
       </c>
       <c r="F7">
-        <v>-0.07042398746319062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03116178639156227</v>
+      </c>
+      <c r="G7">
+        <v>-0.04281268026246682</v>
+      </c>
+      <c r="H7">
+        <v>0.04967308180305201</v>
+      </c>
+      <c r="I7">
+        <v>-0.004455419557708873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03944529280848691</v>
+        <v>0.01376179381837366</v>
       </c>
       <c r="C8">
-        <v>0.001382761627804347</v>
+        <v>-0.00915548881617945</v>
       </c>
       <c r="D8">
-        <v>0.04468788767476019</v>
+        <v>-0.04074328377008956</v>
       </c>
       <c r="E8">
-        <v>0.04317452411237687</v>
+        <v>0.01649699286241621</v>
       </c>
       <c r="F8">
-        <v>-0.07453790406540395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02134512327375917</v>
+      </c>
+      <c r="G8">
+        <v>-0.06013004114882987</v>
+      </c>
+      <c r="H8">
+        <v>0.05437845571340189</v>
+      </c>
+      <c r="I8">
+        <v>-0.03954963691903951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.05977196539378613</v>
+        <v>0.05011595610698379</v>
       </c>
       <c r="C9">
-        <v>-0.02811828902269171</v>
+        <v>-0.001304729757199754</v>
       </c>
       <c r="D9">
-        <v>0.04080721343802799</v>
+        <v>-0.03102882399085938</v>
       </c>
       <c r="E9">
-        <v>0.05914006680157114</v>
+        <v>0.0192288218317068</v>
       </c>
       <c r="F9">
-        <v>-0.05185400968810083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04370536066452241</v>
+      </c>
+      <c r="G9">
+        <v>-0.07062747079112201</v>
+      </c>
+      <c r="H9">
+        <v>0.0269665851752715</v>
+      </c>
+      <c r="I9">
+        <v>-0.0467128673533346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03499778262803573</v>
+        <v>0.06171687459038538</v>
       </c>
       <c r="C10">
-        <v>-0.08322368430253005</v>
+        <v>-0.00107170859599793</v>
       </c>
       <c r="D10">
-        <v>-0.1137618243713023</v>
+        <v>0.1562072643418863</v>
       </c>
       <c r="E10">
-        <v>-0.09342831157222813</v>
+        <v>-0.03606784118869827</v>
       </c>
       <c r="F10">
-        <v>-0.05270016851256037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04440235361149916</v>
+      </c>
+      <c r="G10">
+        <v>-0.04608054731030294</v>
+      </c>
+      <c r="H10">
+        <v>0.03115770216032702</v>
+      </c>
+      <c r="I10">
+        <v>-0.0432179121298519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.04845777575723134</v>
+        <v>0.04038576167420948</v>
       </c>
       <c r="C11">
-        <v>-0.00586912233259662</v>
+        <v>-0.01345279993126344</v>
       </c>
       <c r="D11">
-        <v>0.0312335828846095</v>
+        <v>-0.03708543394161596</v>
       </c>
       <c r="E11">
-        <v>0.01035316000549488</v>
+        <v>-0.0005141501195155363</v>
       </c>
       <c r="F11">
-        <v>-0.04119649596568289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01613393168606573</v>
+      </c>
+      <c r="G11">
+        <v>-0.03294788701366913</v>
+      </c>
+      <c r="H11">
+        <v>0.003196989567456654</v>
+      </c>
+      <c r="I11">
+        <v>-0.0203057455765028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04623995874906017</v>
+        <v>0.04094526641469858</v>
       </c>
       <c r="C12">
-        <v>-0.006611486283032455</v>
+        <v>-0.004973749568467005</v>
       </c>
       <c r="D12">
-        <v>0.02927239421276681</v>
+        <v>-0.03364511825963604</v>
       </c>
       <c r="E12">
-        <v>0.0305685780776215</v>
+        <v>0.009832401077104308</v>
       </c>
       <c r="F12">
-        <v>-0.02656739927409187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02185108188758908</v>
+      </c>
+      <c r="G12">
+        <v>-0.01256487104897446</v>
+      </c>
+      <c r="H12">
+        <v>0.004328250545711026</v>
+      </c>
+      <c r="I12">
+        <v>-0.008407357813317437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04807067888555306</v>
+        <v>0.03958540208504124</v>
       </c>
       <c r="C13">
-        <v>-0.01780156605285908</v>
+        <v>0.00838405503718825</v>
       </c>
       <c r="D13">
-        <v>0.0463756218545253</v>
+        <v>-0.02554234206211881</v>
       </c>
       <c r="E13">
-        <v>-0.01979751099681317</v>
+        <v>-0.01463017031648235</v>
       </c>
       <c r="F13">
-        <v>-0.1122859830178489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0159104327332992</v>
+      </c>
+      <c r="G13">
+        <v>-0.08272602090791373</v>
+      </c>
+      <c r="H13">
+        <v>0.03692034887088039</v>
+      </c>
+      <c r="I13">
+        <v>-0.03699122710305528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0246587691407883</v>
+        <v>0.02101543836521701</v>
       </c>
       <c r="C14">
-        <v>-0.01748512965444221</v>
+        <v>-0.001103183790478341</v>
       </c>
       <c r="D14">
-        <v>0.03955239784605538</v>
+        <v>-0.01499234431288666</v>
       </c>
       <c r="E14">
-        <v>0.02094230983792346</v>
+        <v>0.008134960928794897</v>
       </c>
       <c r="F14">
-        <v>-0.0374338896118095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0310314670452673</v>
+      </c>
+      <c r="G14">
+        <v>-0.0330821485044715</v>
+      </c>
+      <c r="H14">
+        <v>0.06542101556673206</v>
+      </c>
+      <c r="I14">
+        <v>-0.02226750918435941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.03916080494902107</v>
+        <v>0.03459033666916186</v>
       </c>
       <c r="C16">
-        <v>-0.005182133614463178</v>
+        <v>-0.01121587065623877</v>
       </c>
       <c r="D16">
-        <v>0.02776323419482117</v>
+        <v>-0.03300350392631854</v>
       </c>
       <c r="E16">
-        <v>0.01232078429579845</v>
+        <v>0.0040979611779667</v>
       </c>
       <c r="F16">
-        <v>-0.03261115785513193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02057974940684612</v>
+      </c>
+      <c r="G16">
+        <v>-0.02906401577481635</v>
+      </c>
+      <c r="H16">
+        <v>0.006785587402062009</v>
+      </c>
+      <c r="I16">
+        <v>-0.008631720531532425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06177188973118131</v>
+        <v>0.04724663008923909</v>
       </c>
       <c r="C19">
-        <v>0.00111690769670094</v>
+        <v>-0.005453941249285713</v>
       </c>
       <c r="D19">
-        <v>0.03799390855601206</v>
+        <v>-0.03904414985525258</v>
       </c>
       <c r="E19">
-        <v>-0.0008164671446545891</v>
+        <v>-0.001136179595767746</v>
       </c>
       <c r="F19">
-        <v>-0.08282180458495142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02062338456806123</v>
+      </c>
+      <c r="G19">
+        <v>-0.07829219764373598</v>
+      </c>
+      <c r="H19">
+        <v>0.04718818113446489</v>
+      </c>
+      <c r="I19">
+        <v>-0.0287362675332403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01678978692078306</v>
+        <v>0.01231082552924682</v>
       </c>
       <c r="C20">
-        <v>-0.008824699427646732</v>
+        <v>0.002807159509887805</v>
       </c>
       <c r="D20">
-        <v>0.04404366070249043</v>
+        <v>-0.02084141647328864</v>
       </c>
       <c r="E20">
-        <v>0.03062008142352445</v>
+        <v>0.006232334457695041</v>
       </c>
       <c r="F20">
-        <v>-0.06549747984365012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02078021350869302</v>
+      </c>
+      <c r="G20">
+        <v>-0.04994535905708709</v>
+      </c>
+      <c r="H20">
+        <v>0.06089347272344429</v>
+      </c>
+      <c r="I20">
+        <v>-0.01586521858209145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01879878826656815</v>
+        <v>0.02848383049266084</v>
       </c>
       <c r="C21">
-        <v>0.006006787821809623</v>
+        <v>0.001978236515191582</v>
       </c>
       <c r="D21">
-        <v>0.03857722222858792</v>
+        <v>-0.02200247185725095</v>
       </c>
       <c r="E21">
-        <v>0.01283118054756392</v>
+        <v>0.01479047779862362</v>
       </c>
       <c r="F21">
-        <v>-0.07819041895559498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01300447373597772</v>
+      </c>
+      <c r="G21">
+        <v>-0.05529112292953799</v>
+      </c>
+      <c r="H21">
+        <v>0.02731936426375622</v>
+      </c>
+      <c r="I21">
+        <v>-0.06100045695131565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0372264932261268</v>
+        <v>0.03315119455518509</v>
       </c>
       <c r="C24">
-        <v>-0.005119275115202345</v>
+        <v>-0.008636071012966894</v>
       </c>
       <c r="D24">
-        <v>0.02527033882260448</v>
+        <v>-0.03038562819306748</v>
       </c>
       <c r="E24">
-        <v>0.01312641809246731</v>
+        <v>0.004232251779686725</v>
       </c>
       <c r="F24">
-        <v>-0.04261301565454337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01624021473284202</v>
+      </c>
+      <c r="G24">
+        <v>-0.03117987780226072</v>
+      </c>
+      <c r="H24">
+        <v>0.002388630082381387</v>
+      </c>
+      <c r="I24">
+        <v>-0.01231446301880383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04077063603956142</v>
+        <v>0.04164181364166844</v>
       </c>
       <c r="C25">
-        <v>-0.005860677633199071</v>
+        <v>-0.003784278658235199</v>
       </c>
       <c r="D25">
-        <v>0.0284592824678032</v>
+        <v>-0.03130276276665855</v>
       </c>
       <c r="E25">
-        <v>0.01893742980002465</v>
+        <v>0.00413191677640326</v>
       </c>
       <c r="F25">
-        <v>-0.04967241885651216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01967562171394637</v>
+      </c>
+      <c r="G25">
+        <v>-0.04228456163378016</v>
+      </c>
+      <c r="H25">
+        <v>-0.0007078532791197607</v>
+      </c>
+      <c r="I25">
+        <v>-0.01896952652592755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02123143367824849</v>
+        <v>0.01676913864245266</v>
       </c>
       <c r="C26">
-        <v>0.004494636661238931</v>
+        <v>0.01563451568433218</v>
       </c>
       <c r="D26">
-        <v>0.04977139195425268</v>
+        <v>-0.0250487481857915</v>
       </c>
       <c r="E26">
-        <v>-0.001451788794156402</v>
+        <v>-0.001900016090586853</v>
       </c>
       <c r="F26">
-        <v>-0.0480985338957322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007139122288543929</v>
+      </c>
+      <c r="G26">
+        <v>-0.04252003012374683</v>
+      </c>
+      <c r="H26">
+        <v>0.03899340775060438</v>
+      </c>
+      <c r="I26">
+        <v>-0.01730915508271686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1020389615335056</v>
+        <v>0.0566858870888734</v>
       </c>
       <c r="C27">
-        <v>-0.03975060994156744</v>
+        <v>-0.01633113154533474</v>
       </c>
       <c r="D27">
-        <v>0.03578711758674557</v>
+        <v>-0.01758799909466894</v>
       </c>
       <c r="E27">
-        <v>0.03510255087679581</v>
+        <v>0.002901553316076845</v>
       </c>
       <c r="F27">
-        <v>-0.05411769436648058</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02607230583253371</v>
+      </c>
+      <c r="G27">
+        <v>-0.03879541003746289</v>
+      </c>
+      <c r="H27">
+        <v>0.03453467921511026</v>
+      </c>
+      <c r="I27">
+        <v>-0.02051576565505039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05229540069549066</v>
+        <v>0.09143254172411332</v>
       </c>
       <c r="C28">
-        <v>-0.1058567370972924</v>
+        <v>0.007043421499856436</v>
       </c>
       <c r="D28">
-        <v>-0.1863465009774325</v>
+        <v>0.2388990299274424</v>
       </c>
       <c r="E28">
-        <v>-0.1283966531949634</v>
+        <v>-0.04714728633134734</v>
       </c>
       <c r="F28">
-        <v>-0.02287341722306083</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0674607665393762</v>
+      </c>
+      <c r="G28">
+        <v>-0.02496118066711472</v>
+      </c>
+      <c r="H28">
+        <v>0.04889804905775132</v>
+      </c>
+      <c r="I28">
+        <v>-0.03577125393650624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02782209274347038</v>
+        <v>0.02374621055190398</v>
       </c>
       <c r="C29">
-        <v>-0.01325241199830071</v>
+        <v>-0.00220989050739399</v>
       </c>
       <c r="D29">
-        <v>0.03905637456309614</v>
+        <v>-0.01544169913025527</v>
       </c>
       <c r="E29">
-        <v>0.03089359257915827</v>
+        <v>0.009354324950008706</v>
       </c>
       <c r="F29">
-        <v>-0.02177498439895995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03277639258896412</v>
+      </c>
+      <c r="G29">
+        <v>-0.02773067428362355</v>
+      </c>
+      <c r="H29">
+        <v>0.06190036263539238</v>
+      </c>
+      <c r="I29">
+        <v>-0.02397362297532335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.09650731616788577</v>
+        <v>0.08122670819422678</v>
       </c>
       <c r="C30">
-        <v>-0.05392968768978581</v>
+        <v>0.007091314231644564</v>
       </c>
       <c r="D30">
-        <v>0.0661992689108875</v>
+        <v>-0.05966690667594674</v>
       </c>
       <c r="E30">
-        <v>0.01800730153001436</v>
+        <v>-0.03534663887848884</v>
       </c>
       <c r="F30">
-        <v>-0.09323119094207419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0598772796909646</v>
+      </c>
+      <c r="G30">
+        <v>-0.09141965130399987</v>
+      </c>
+      <c r="H30">
+        <v>0.01693162901825885</v>
+      </c>
+      <c r="I30">
+        <v>-0.004578921242224502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05801759844428381</v>
+        <v>0.05396972910426429</v>
       </c>
       <c r="C31">
-        <v>-0.01793184770886947</v>
+        <v>-0.01465496930685603</v>
       </c>
       <c r="D31">
-        <v>0.03247192930162146</v>
+        <v>-0.01608573363748389</v>
       </c>
       <c r="E31">
-        <v>-0.02594327667009153</v>
+        <v>-0.006745842187440978</v>
       </c>
       <c r="F31">
-        <v>0.01259737611610399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01737888587241439</v>
+      </c>
+      <c r="G31">
+        <v>0.003134852053334504</v>
+      </c>
+      <c r="H31">
+        <v>0.05560140367221148</v>
+      </c>
+      <c r="I31">
+        <v>-0.0502525400503095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.05565812286308426</v>
+        <v>0.02979535866587606</v>
       </c>
       <c r="C32">
-        <v>-0.0193245894129112</v>
+        <v>-0.02127116364085873</v>
       </c>
       <c r="D32">
-        <v>0.05089101172347656</v>
+        <v>-0.03179272464251053</v>
       </c>
       <c r="E32">
-        <v>0.03510388770756973</v>
+        <v>0.01683500471497537</v>
       </c>
       <c r="F32">
-        <v>-0.06910104579073249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0493402151238139</v>
+      </c>
+      <c r="G32">
+        <v>-0.07416005059802604</v>
+      </c>
+      <c r="H32">
+        <v>0.00508593845467938</v>
+      </c>
+      <c r="I32">
+        <v>-0.009120861842891435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05466893581652004</v>
+        <v>0.0454766691106042</v>
       </c>
       <c r="C33">
-        <v>0.001748804304090066</v>
+        <v>-0.007070634622953706</v>
       </c>
       <c r="D33">
-        <v>0.07254460647392516</v>
+        <v>-0.05096696758273848</v>
       </c>
       <c r="E33">
-        <v>0.0131617368552176</v>
+        <v>-0.01455598180653246</v>
       </c>
       <c r="F33">
-        <v>-0.07333651802451945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01322237214289451</v>
+      </c>
+      <c r="G33">
+        <v>-0.06326157878503127</v>
+      </c>
+      <c r="H33">
+        <v>0.0485594675562557</v>
+      </c>
+      <c r="I33">
+        <v>-0.04321215937466062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04057071332392088</v>
+        <v>0.03557664188785805</v>
       </c>
       <c r="C34">
-        <v>-0.0124190296231375</v>
+        <v>-0.01951730168297549</v>
       </c>
       <c r="D34">
-        <v>0.03219438262231093</v>
+        <v>-0.03063068407951729</v>
       </c>
       <c r="E34">
-        <v>0.01848389547174598</v>
+        <v>0.008757017409855438</v>
       </c>
       <c r="F34">
-        <v>-0.04055347114895153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02631697103333248</v>
+      </c>
+      <c r="G34">
+        <v>-0.03623250666134904</v>
+      </c>
+      <c r="H34">
+        <v>0.004610046997034762</v>
+      </c>
+      <c r="I34">
+        <v>-0.0161340897337494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01763020256582382</v>
+        <v>0.01989876879169986</v>
       </c>
       <c r="C36">
-        <v>-0.01489950873482801</v>
+        <v>0.003314672954312647</v>
       </c>
       <c r="D36">
-        <v>0.008640130446606449</v>
+        <v>0.0003404641241883493</v>
       </c>
       <c r="E36">
-        <v>0.006943199386174941</v>
+        <v>0.002133339961468259</v>
       </c>
       <c r="F36">
-        <v>-0.02268003536973413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01354266985630636</v>
+      </c>
+      <c r="G36">
+        <v>-0.02285897501228666</v>
+      </c>
+      <c r="H36">
+        <v>0.03375109490572258</v>
+      </c>
+      <c r="I36">
+        <v>-0.02726356815391138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.01535070256879669</v>
+        <v>0.02031013219969293</v>
       </c>
       <c r="C38">
-        <v>-0.008184632451843072</v>
+        <v>-0.01319271022027798</v>
       </c>
       <c r="D38">
-        <v>-0.009858143013794994</v>
+        <v>-0.002973354751386941</v>
       </c>
       <c r="E38">
-        <v>0.004651501632490685</v>
+        <v>0.004864678572062219</v>
       </c>
       <c r="F38">
-        <v>-0.0217588289849928</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002900538128308963</v>
+      </c>
+      <c r="G38">
+        <v>-0.0394598842706296</v>
+      </c>
+      <c r="H38">
+        <v>0.02699319230774476</v>
+      </c>
+      <c r="I38">
+        <v>-0.03250688328353443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.05461817994268557</v>
+        <v>0.04149208327455273</v>
       </c>
       <c r="C39">
-        <v>-0.01162891989095552</v>
+        <v>-0.006190120954041063</v>
       </c>
       <c r="D39">
-        <v>0.04920578260686236</v>
+        <v>-0.05464750499019368</v>
       </c>
       <c r="E39">
-        <v>0.00837382357626877</v>
+        <v>0.001587210441438741</v>
       </c>
       <c r="F39">
-        <v>-0.0304602958064627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03201000605078296</v>
+      </c>
+      <c r="G39">
+        <v>-0.0516875459639187</v>
+      </c>
+      <c r="H39">
+        <v>-0.004040166156248196</v>
+      </c>
+      <c r="I39">
+        <v>-0.02516353933308511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05591322584491205</v>
+        <v>0.04531902016805959</v>
       </c>
       <c r="C40">
-        <v>-0.03187894441505943</v>
+        <v>-0.007889254098664145</v>
       </c>
       <c r="D40">
-        <v>0.07294688491544525</v>
+        <v>-0.04182234411827112</v>
       </c>
       <c r="E40">
-        <v>-0.01446824347632754</v>
+        <v>-0.01935781529359539</v>
       </c>
       <c r="F40">
-        <v>-0.08191093580450529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03364976850311908</v>
+      </c>
+      <c r="G40">
+        <v>-0.06947461126606906</v>
+      </c>
+      <c r="H40">
+        <v>0.03692620639961274</v>
+      </c>
+      <c r="I40">
+        <v>-0.03981798844895824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009803496366551414</v>
+        <v>0.0008878034016305752</v>
       </c>
       <c r="C41">
-        <v>0.004561335994867063</v>
+        <v>0.001455396664607243</v>
       </c>
       <c r="D41">
-        <v>0.0259501884543042</v>
+        <v>-0.00302402712796545</v>
       </c>
       <c r="E41">
-        <v>0.01892846277203721</v>
+        <v>0.001095933764242139</v>
       </c>
       <c r="F41">
-        <v>0.01125153789280908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006652732606098512</v>
+      </c>
+      <c r="G41">
+        <v>2.76469133339747e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.0522613932342484</v>
+      </c>
+      <c r="I41">
+        <v>-0.04197915832583846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.3578924670144954</v>
+        <v>0.2477058591352628</v>
       </c>
       <c r="C42">
-        <v>0.8645465122011881</v>
+        <v>0.07902922642688694</v>
       </c>
       <c r="D42">
-        <v>-0.1532208323757071</v>
+        <v>-0.3714604180112611</v>
       </c>
       <c r="E42">
-        <v>-0.2559591724435031</v>
+        <v>0.02791306587874992</v>
       </c>
       <c r="F42">
-        <v>0.06346326901684435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.865976638667473</v>
+      </c>
+      <c r="G42">
+        <v>0.1324798098244926</v>
+      </c>
+      <c r="H42">
+        <v>-0.01782187258957465</v>
+      </c>
+      <c r="I42">
+        <v>-0.0007779962540289436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008716394222912828</v>
+        <v>0.003324329138526179</v>
       </c>
       <c r="C43">
-        <v>0.00318340511275382</v>
+        <v>0.007239057914306212</v>
       </c>
       <c r="D43">
-        <v>0.02529884482767563</v>
+        <v>-0.004758149789496999</v>
       </c>
       <c r="E43">
-        <v>0.005396189302424683</v>
+        <v>-0.002151320408197297</v>
       </c>
       <c r="F43">
-        <v>-0.0294016185299333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004389227642125963</v>
+      </c>
+      <c r="G43">
+        <v>-0.01386927028247896</v>
+      </c>
+      <c r="H43">
+        <v>0.04684605862033744</v>
+      </c>
+      <c r="I43">
+        <v>-0.02544992539361422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03004032324075777</v>
+        <v>0.01816535082996345</v>
       </c>
       <c r="C44">
-        <v>0.0002541343235965891</v>
+        <v>-0.003309628170499923</v>
       </c>
       <c r="D44">
-        <v>0.05848632570568046</v>
+        <v>-0.03072800935254665</v>
       </c>
       <c r="E44">
-        <v>0.01829243240543047</v>
+        <v>0.007552990362752414</v>
       </c>
       <c r="F44">
-        <v>-0.1270239160865194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01068572131812063</v>
+      </c>
+      <c r="G44">
+        <v>-0.1071284259973962</v>
+      </c>
+      <c r="H44">
+        <v>0.1008419733270331</v>
+      </c>
+      <c r="I44">
+        <v>-0.05460859178661811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03037432528813959</v>
+        <v>0.02301737416245092</v>
       </c>
       <c r="C46">
-        <v>-0.01175241238233674</v>
+        <v>0.0001507236527570858</v>
       </c>
       <c r="D46">
-        <v>0.05318893050529661</v>
+        <v>-0.03106051225860347</v>
       </c>
       <c r="E46">
-        <v>0.01974551780535143</v>
+        <v>-0.0007438792597923423</v>
       </c>
       <c r="F46">
-        <v>-0.0177263364477654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03688821795787144</v>
+      </c>
+      <c r="G46">
+        <v>-0.04104756838371165</v>
+      </c>
+      <c r="H46">
+        <v>0.06505311828417588</v>
+      </c>
+      <c r="I46">
+        <v>-0.01939229668892756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08733231406802949</v>
+        <v>0.08010818829006094</v>
       </c>
       <c r="C47">
-        <v>-0.02637201077027053</v>
+        <v>-0.02513909784891846</v>
       </c>
       <c r="D47">
-        <v>0.03486977676579683</v>
+        <v>-0.02392350258973431</v>
       </c>
       <c r="E47">
-        <v>0.01822589661676494</v>
+        <v>-0.001206869735760752</v>
       </c>
       <c r="F47">
-        <v>0.02958369389176227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02873509560435114</v>
+      </c>
+      <c r="G47">
+        <v>0.02977943219264817</v>
+      </c>
+      <c r="H47">
+        <v>0.0696708026427682</v>
+      </c>
+      <c r="I47">
+        <v>-0.03695187618944216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01317895454647161</v>
+        <v>0.01981059995061701</v>
       </c>
       <c r="C48">
-        <v>-0.009093663547032829</v>
+        <v>-0.007110859633726223</v>
       </c>
       <c r="D48">
-        <v>0.02992299732015423</v>
+        <v>-0.009926013141414053</v>
       </c>
       <c r="E48">
-        <v>0.01102382013292699</v>
+        <v>0.001282898188312826</v>
       </c>
       <c r="F48">
-        <v>-0.03800468379235972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01542430644545109</v>
+      </c>
+      <c r="G48">
+        <v>-0.02586805627737384</v>
+      </c>
+      <c r="H48">
+        <v>0.03103379803472614</v>
+      </c>
+      <c r="I48">
+        <v>-0.01901468126986552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08469517031480457</v>
+        <v>0.07766967240001058</v>
       </c>
       <c r="C50">
-        <v>-0.005940182100741593</v>
+        <v>-0.02432346568806438</v>
       </c>
       <c r="D50">
-        <v>0.03855153500635376</v>
+        <v>-0.03743160038380017</v>
       </c>
       <c r="E50">
-        <v>0.004445515171534159</v>
+        <v>0.01468568736849474</v>
       </c>
       <c r="F50">
-        <v>0.01582364731701078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0178385071567817</v>
+      </c>
+      <c r="G50">
+        <v>0.01055571247179034</v>
+      </c>
+      <c r="H50">
+        <v>0.05262521387959102</v>
+      </c>
+      <c r="I50">
+        <v>-0.001249720600522152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.04727912565931608</v>
+        <v>0.03170759443007108</v>
       </c>
       <c r="C51">
-        <v>-0.002325145289673414</v>
+        <v>0.003662241472723217</v>
       </c>
       <c r="D51">
-        <v>0.02263872030807174</v>
+        <v>-0.0001737376976204395</v>
       </c>
       <c r="E51">
-        <v>-0.04011381917471247</v>
+        <v>-0.009933360214090163</v>
       </c>
       <c r="F51">
-        <v>-0.07802164961461187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.009126773499171988</v>
+      </c>
+      <c r="G51">
+        <v>-0.0785581974149082</v>
+      </c>
+      <c r="H51">
+        <v>0.08481918899211503</v>
+      </c>
+      <c r="I51">
+        <v>-0.05831028881646885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1177480823777429</v>
+        <v>0.1060659969976508</v>
       </c>
       <c r="C53">
-        <v>-0.02632460203175838</v>
+        <v>-0.03140188990206275</v>
       </c>
       <c r="D53">
-        <v>0.07004587868612087</v>
+        <v>-0.05287563235675782</v>
       </c>
       <c r="E53">
-        <v>0.01642795072400324</v>
+        <v>0.001084393898904064</v>
       </c>
       <c r="F53">
-        <v>0.06964001487908066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05130059796712204</v>
+      </c>
+      <c r="G53">
+        <v>0.0572879768218842</v>
+      </c>
+      <c r="H53">
+        <v>0.02309702852558514</v>
+      </c>
+      <c r="I53">
+        <v>-0.02094756807356477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02431411424143173</v>
+        <v>0.02592938019719966</v>
       </c>
       <c r="C54">
-        <v>-0.02509053118209373</v>
+        <v>-0.01451542609158569</v>
       </c>
       <c r="D54">
-        <v>0.02536533887190687</v>
+        <v>0.002107413824954556</v>
       </c>
       <c r="E54">
-        <v>0.01678183392894783</v>
+        <v>0.002895438571380632</v>
       </c>
       <c r="F54">
-        <v>-0.03238380907362869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02856174196654675</v>
+      </c>
+      <c r="G54">
+        <v>-0.02418608109220821</v>
+      </c>
+      <c r="H54">
+        <v>0.06276543275249945</v>
+      </c>
+      <c r="I54">
+        <v>-0.03446686254717057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1052796843006425</v>
+        <v>0.09177866629073443</v>
       </c>
       <c r="C55">
-        <v>-0.02686610149390365</v>
+        <v>-0.03387019724503514</v>
       </c>
       <c r="D55">
-        <v>0.02207440577573746</v>
+        <v>-0.04395312901795053</v>
       </c>
       <c r="E55">
-        <v>0.04718663559899683</v>
+        <v>0.01555407762803228</v>
       </c>
       <c r="F55">
-        <v>0.05588619695590195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04340557833269295</v>
+      </c>
+      <c r="G55">
+        <v>0.05458050050862816</v>
+      </c>
+      <c r="H55">
+        <v>0.02776291513955609</v>
+      </c>
+      <c r="I55">
+        <v>0.01136716101377852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1353604216703688</v>
+        <v>0.1370499618358983</v>
       </c>
       <c r="C56">
-        <v>-0.06406256336952214</v>
+        <v>-0.04763360496600367</v>
       </c>
       <c r="D56">
-        <v>0.05060488706250542</v>
+        <v>-0.04498200891040038</v>
       </c>
       <c r="E56">
-        <v>0.05048654744149355</v>
+        <v>0.005260497754220859</v>
       </c>
       <c r="F56">
-        <v>0.1192332450479215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07586042841532874</v>
+      </c>
+      <c r="G56">
+        <v>0.1025001646091367</v>
+      </c>
+      <c r="H56">
+        <v>-0.009803483472993523</v>
+      </c>
+      <c r="I56">
+        <v>0.01710004149606907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.0656104112466154</v>
+        <v>0.05747892687165598</v>
       </c>
       <c r="C57">
-        <v>-0.01877996377688396</v>
+        <v>0.008607038984857573</v>
       </c>
       <c r="D57">
-        <v>0.04758757118672175</v>
+        <v>-0.03110838796492386</v>
       </c>
       <c r="E57">
-        <v>-0.01322100778619025</v>
+        <v>-0.01359353316421674</v>
       </c>
       <c r="F57">
-        <v>-0.0719873171328361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.009356732847801003</v>
+      </c>
+      <c r="G57">
+        <v>-0.05828806722473209</v>
+      </c>
+      <c r="H57">
+        <v>0.0321342676843627</v>
+      </c>
+      <c r="I57">
+        <v>-0.02303015555225578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2200258882472819</v>
+        <v>0.1902876559041266</v>
       </c>
       <c r="C58">
-        <v>-0.03890095019325148</v>
+        <v>-0.05730057486690607</v>
       </c>
       <c r="D58">
-        <v>0.1310919817979234</v>
+        <v>-0.1283699571912339</v>
       </c>
       <c r="E58">
-        <v>6.61019774461407e-07</v>
+        <v>-0.08462468213502727</v>
       </c>
       <c r="F58">
-        <v>-0.2455056839840606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.007001883627262568</v>
+      </c>
+      <c r="G58">
+        <v>-0.3775280922640978</v>
+      </c>
+      <c r="H58">
+        <v>0.3993673521947673</v>
+      </c>
+      <c r="I58">
+        <v>0.3866476661548965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.05136521918502653</v>
+        <v>0.0947429685480957</v>
       </c>
       <c r="C59">
-        <v>-0.1213898720042575</v>
+        <v>0.005432364400492699</v>
       </c>
       <c r="D59">
-        <v>-0.1301119186380874</v>
+        <v>0.2055276670665917</v>
       </c>
       <c r="E59">
-        <v>-0.07908441370674496</v>
+        <v>-0.05759296210099707</v>
       </c>
       <c r="F59">
-        <v>-0.017694710061894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02476221354222866</v>
+      </c>
+      <c r="G59">
+        <v>-0.04407768349792728</v>
+      </c>
+      <c r="H59">
+        <v>0.02323100865630749</v>
+      </c>
+      <c r="I59">
+        <v>-0.02687564190545999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1731923089286093</v>
+        <v>0.1935067814335323</v>
       </c>
       <c r="C60">
-        <v>-0.08160948892965737</v>
+        <v>-0.02997998952041137</v>
       </c>
       <c r="D60">
-        <v>0.01363476322978528</v>
+        <v>0.01419505344327181</v>
       </c>
       <c r="E60">
-        <v>-0.08286658592822431</v>
+        <v>-0.06823493523540812</v>
       </c>
       <c r="F60">
-        <v>-0.1449571913529988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0298324784831542</v>
+      </c>
+      <c r="G60">
+        <v>-0.210815636700086</v>
+      </c>
+      <c r="H60">
+        <v>-0.3548061436262017</v>
+      </c>
+      <c r="I60">
+        <v>-0.03338152556848867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03276345596226218</v>
+        <v>0.03426468248977236</v>
       </c>
       <c r="C61">
-        <v>-0.008921177834289619</v>
+        <v>-0.01182333115453366</v>
       </c>
       <c r="D61">
-        <v>0.0200794569229038</v>
+        <v>-0.03471074388833065</v>
       </c>
       <c r="E61">
-        <v>0.01673036842657947</v>
+        <v>0.005432207090285316</v>
       </c>
       <c r="F61">
-        <v>-0.03341261115173118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02668105145161377</v>
+      </c>
+      <c r="G61">
+        <v>-0.03565377851422972</v>
+      </c>
+      <c r="H61">
+        <v>-0.01356492514122929</v>
+      </c>
+      <c r="I61">
+        <v>-0.01496301883040837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02783496957390783</v>
+        <v>0.02519973053516812</v>
       </c>
       <c r="C63">
-        <v>-0.02067549074856982</v>
+        <v>-0.002384849430508476</v>
       </c>
       <c r="D63">
-        <v>0.04507852688796896</v>
+        <v>-0.02450517316994007</v>
       </c>
       <c r="E63">
-        <v>0.01855690548538195</v>
+        <v>0.001935742423991152</v>
       </c>
       <c r="F63">
-        <v>-0.04142853041563441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02475865230512848</v>
+      </c>
+      <c r="G63">
+        <v>-0.02411309524997016</v>
+      </c>
+      <c r="H63">
+        <v>0.05104533058796622</v>
+      </c>
+      <c r="I63">
+        <v>-0.003803882531128899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05246722328497448</v>
+        <v>0.0505160935285394</v>
       </c>
       <c r="C64">
-        <v>-0.009936290494127314</v>
+        <v>-0.01068091915160976</v>
       </c>
       <c r="D64">
-        <v>0.0449633103998402</v>
+        <v>-0.03989619634499503</v>
       </c>
       <c r="E64">
-        <v>0.05502089238683767</v>
+        <v>0.01397338718943197</v>
       </c>
       <c r="F64">
-        <v>-0.04333168469369633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02979326846716415</v>
+      </c>
+      <c r="G64">
+        <v>-0.03278300465602989</v>
+      </c>
+      <c r="H64">
+        <v>0.03182337476795135</v>
+      </c>
+      <c r="I64">
+        <v>-0.06833997840143961</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.005405165199633586</v>
+        <v>0.03299944271713433</v>
       </c>
       <c r="C65">
-        <v>-0.0009178241272730337</v>
+        <v>0.005248351217813707</v>
       </c>
       <c r="D65">
-        <v>-0.0004352059650389606</v>
+        <v>-0.02089711124595988</v>
       </c>
       <c r="E65">
-        <v>-0.005943146953123523</v>
+        <v>0.00542294933825275</v>
       </c>
       <c r="F65">
-        <v>-0.00256295038058204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02185403406246895</v>
+      </c>
+      <c r="G65">
+        <v>-0.01551419142326357</v>
+      </c>
+      <c r="H65">
+        <v>-0.03844962303379797</v>
+      </c>
+      <c r="I65">
+        <v>0.009554654858866895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.05232940661018794</v>
+        <v>0.04882668117036876</v>
       </c>
       <c r="C66">
-        <v>-0.02451758408774438</v>
+        <v>-0.012879239478056</v>
       </c>
       <c r="D66">
-        <v>0.06045009472043938</v>
+        <v>-0.0619308550317443</v>
       </c>
       <c r="E66">
-        <v>0.02513592750446108</v>
+        <v>-0.005169238043137452</v>
       </c>
       <c r="F66">
-        <v>-0.08205562415786923</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05806863933434537</v>
+      </c>
+      <c r="G66">
+        <v>-0.06495385490835125</v>
+      </c>
+      <c r="H66">
+        <v>-0.01550208735887905</v>
+      </c>
+      <c r="I66">
+        <v>-0.01053696082438725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03420429893889274</v>
+        <v>0.04085003217353306</v>
       </c>
       <c r="C67">
-        <v>-0.01991209021436445</v>
+        <v>-0.01099135500320524</v>
       </c>
       <c r="D67">
-        <v>-0.02093672763971313</v>
+        <v>0.006324815116381783</v>
       </c>
       <c r="E67">
-        <v>-0.01005317983843341</v>
+        <v>-0.001611821941200248</v>
       </c>
       <c r="F67">
-        <v>-0.02442296199266483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0065158456417722</v>
+      </c>
+      <c r="G67">
+        <v>-0.03251416597134924</v>
+      </c>
+      <c r="H67">
+        <v>0.004694698908509766</v>
+      </c>
+      <c r="I67">
+        <v>-0.04976259319713074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06295829750843555</v>
+        <v>0.09943242677178661</v>
       </c>
       <c r="C68">
-        <v>-0.1144377053021901</v>
+        <v>0.0270095043768411</v>
       </c>
       <c r="D68">
-        <v>-0.1850114343324983</v>
+        <v>0.2256024486065969</v>
       </c>
       <c r="E68">
-        <v>-0.1166529570880248</v>
+        <v>-0.05527188382599833</v>
       </c>
       <c r="F68">
-        <v>0.02500650154233484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05589175903292061</v>
+      </c>
+      <c r="G68">
+        <v>-0.001343506069457219</v>
+      </c>
+      <c r="H68">
+        <v>0.04129903844608963</v>
+      </c>
+      <c r="I68">
+        <v>0.01572123712320801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07051742883371026</v>
+        <v>0.06673551696102882</v>
       </c>
       <c r="C69">
-        <v>-0.03121982382790769</v>
+        <v>-0.02441640944297815</v>
       </c>
       <c r="D69">
-        <v>0.02294037770348276</v>
+        <v>-0.01883866632773722</v>
       </c>
       <c r="E69">
-        <v>-0.0004965613313116309</v>
+        <v>-0.00486700828645226</v>
       </c>
       <c r="F69">
-        <v>0.01198578439559679</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02774357035179948</v>
+      </c>
+      <c r="G69">
+        <v>0.0126806209039057</v>
+      </c>
+      <c r="H69">
+        <v>0.04514537865268584</v>
+      </c>
+      <c r="I69">
+        <v>-0.03265375810860633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06175633769326563</v>
+        <v>0.09578937794465196</v>
       </c>
       <c r="C71">
-        <v>-0.1376354616637209</v>
+        <v>0.01840547319948774</v>
       </c>
       <c r="D71">
-        <v>-0.2333750568160718</v>
+        <v>0.2457965799057446</v>
       </c>
       <c r="E71">
-        <v>-0.1982682414952902</v>
+        <v>-0.06456727551094107</v>
       </c>
       <c r="F71">
-        <v>-0.01189566058050754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07956439970525526</v>
+      </c>
+      <c r="G71">
+        <v>-0.02671970654154704</v>
+      </c>
+      <c r="H71">
+        <v>0.02394238418907304</v>
+      </c>
+      <c r="I71">
+        <v>-0.02017205829536845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1190365339665126</v>
+        <v>0.128050888405211</v>
       </c>
       <c r="C72">
-        <v>-0.08540193111794708</v>
+        <v>-0.04708702452824335</v>
       </c>
       <c r="D72">
-        <v>0.05266472280073513</v>
+        <v>-0.05815488073815472</v>
       </c>
       <c r="E72">
-        <v>0.03194288073019529</v>
+        <v>-0.009674200567864649</v>
       </c>
       <c r="F72">
-        <v>-0.01718701301614821</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1088743807950649</v>
+      </c>
+      <c r="G72">
+        <v>-0.09073396427099217</v>
+      </c>
+      <c r="H72">
+        <v>-0.08253390986098066</v>
+      </c>
+      <c r="I72">
+        <v>-0.02189119494401416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2663407299671783</v>
+        <v>0.271546685253429</v>
       </c>
       <c r="C73">
-        <v>-0.1255996277350183</v>
+        <v>-0.03751965140104282</v>
       </c>
       <c r="D73">
-        <v>-0.03586119358901817</v>
+        <v>0.0008951401730783337</v>
       </c>
       <c r="E73">
-        <v>-0.1328222420057071</v>
+        <v>-0.1020711286123451</v>
       </c>
       <c r="F73">
-        <v>-0.2783106112182663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.009139093204600865</v>
+      </c>
+      <c r="G73">
+        <v>-0.3093862606293896</v>
+      </c>
+      <c r="H73">
+        <v>-0.5187515448138841</v>
+      </c>
+      <c r="I73">
+        <v>0.008232898964731641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1361594800050932</v>
+        <v>0.1319170578081624</v>
       </c>
       <c r="C74">
-        <v>-0.02861452921105048</v>
+        <v>-0.04432055732537557</v>
       </c>
       <c r="D74">
-        <v>0.04360491615535347</v>
+        <v>-0.05509371691721728</v>
       </c>
       <c r="E74">
-        <v>0.0237313515860957</v>
+        <v>-0.002007189416354108</v>
       </c>
       <c r="F74">
-        <v>0.08220006943831232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05467618620220865</v>
+      </c>
+      <c r="G74">
+        <v>0.0845223907275249</v>
+      </c>
+      <c r="H74">
+        <v>-0.02140747670855247</v>
+      </c>
+      <c r="I74">
+        <v>-0.005654229840635227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2179424879927973</v>
+        <v>0.2313374547941546</v>
       </c>
       <c r="C75">
-        <v>-0.0975964063615147</v>
+        <v>-0.07664767013467129</v>
       </c>
       <c r="D75">
-        <v>0.0912907649837781</v>
+        <v>-0.06126584745548962</v>
       </c>
       <c r="E75">
-        <v>0.0263302259882074</v>
+        <v>-0.02473537668714322</v>
       </c>
       <c r="F75">
-        <v>0.1662541215949631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1238872462922674</v>
+      </c>
+      <c r="G75">
+        <v>0.1575536293325329</v>
+      </c>
+      <c r="H75">
+        <v>0.01200281579416843</v>
+      </c>
+      <c r="I75">
+        <v>-0.003195365807620054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2390623730001721</v>
+        <v>0.2331686578728836</v>
       </c>
       <c r="C76">
-        <v>-0.1083118965617017</v>
+        <v>-0.08581752338463111</v>
       </c>
       <c r="D76">
-        <v>0.04231628919248912</v>
+        <v>-0.05353766486844518</v>
       </c>
       <c r="E76">
-        <v>0.08551343908288432</v>
+        <v>0.01916985730502544</v>
       </c>
       <c r="F76">
-        <v>0.1659322366304966</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.137462436587974</v>
+      </c>
+      <c r="G76">
+        <v>0.203436597771844</v>
+      </c>
+      <c r="H76">
+        <v>0.005641946211673713</v>
+      </c>
+      <c r="I76">
+        <v>0.0641810278920808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1510085774104345</v>
+        <v>0.1002746506732798</v>
       </c>
       <c r="C77">
-        <v>0.02662894336087461</v>
+        <v>-0.01663607321082425</v>
       </c>
       <c r="D77">
-        <v>0.06668317651147981</v>
+        <v>-0.08328102084431381</v>
       </c>
       <c r="E77">
-        <v>-0.01124744529703617</v>
+        <v>-0.000147270088725929</v>
       </c>
       <c r="F77">
-        <v>-0.2299265594401129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03557824726730117</v>
+      </c>
+      <c r="G77">
+        <v>-0.1507498550816776</v>
+      </c>
+      <c r="H77">
+        <v>0.2250306523910381</v>
+      </c>
+      <c r="I77">
+        <v>0.0610329658527878</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08139954553455772</v>
+        <v>0.05658454458871721</v>
       </c>
       <c r="C78">
-        <v>0.0121053761322668</v>
+        <v>-0.01536824342237066</v>
       </c>
       <c r="D78">
-        <v>0.07935132458095494</v>
+        <v>-0.06613371261491803</v>
       </c>
       <c r="E78">
-        <v>0.04782417110117803</v>
+        <v>0.01073461696753212</v>
       </c>
       <c r="F78">
-        <v>-0.05098314076712049</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03642142248455362</v>
+      </c>
+      <c r="G78">
+        <v>-0.06979920009903222</v>
+      </c>
+      <c r="H78">
+        <v>0.03166554801461995</v>
+      </c>
+      <c r="I78">
+        <v>-0.0186770431895946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1497070426562629</v>
+        <v>0.1688560131562298</v>
       </c>
       <c r="C80">
-        <v>0.09413228116700789</v>
+        <v>-0.02906532592802007</v>
       </c>
       <c r="D80">
-        <v>-0.5406607812375094</v>
+        <v>0.1844116680104839</v>
       </c>
       <c r="E80">
-        <v>0.7912796983820128</v>
+        <v>0.9533198272562641</v>
       </c>
       <c r="F80">
-        <v>-0.1302564298701877</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02363913237311682</v>
+      </c>
+      <c r="G80">
+        <v>-0.08105441115378818</v>
+      </c>
+      <c r="H80">
+        <v>-0.02798834130111477</v>
+      </c>
+      <c r="I80">
+        <v>-0.03013329644245302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.160370511443577</v>
+        <v>0.1728614800356326</v>
       </c>
       <c r="C81">
-        <v>-0.07787545318310486</v>
+        <v>-0.05672785476601347</v>
       </c>
       <c r="D81">
-        <v>0.05469434981270086</v>
+        <v>-0.04439121169933177</v>
       </c>
       <c r="E81">
-        <v>0.03726763475390614</v>
+        <v>-0.002530211967928925</v>
       </c>
       <c r="F81">
-        <v>0.1581041054251524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1000204601929173</v>
+      </c>
+      <c r="G81">
+        <v>0.1408238719458928</v>
+      </c>
+      <c r="H81">
+        <v>0.015109147918717</v>
+      </c>
+      <c r="I81">
+        <v>0.05122643120816128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06551139150675149</v>
+        <v>0.04907444333156231</v>
       </c>
       <c r="C83">
-        <v>0.03907532058150136</v>
+        <v>-0.01007990287632052</v>
       </c>
       <c r="D83">
-        <v>0.06463347541027707</v>
+        <v>-0.04704729374409473</v>
       </c>
       <c r="E83">
-        <v>0.004660233914741518</v>
+        <v>-0.004724363782580378</v>
       </c>
       <c r="F83">
-        <v>-0.05339524758778786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01097560702340519</v>
+      </c>
+      <c r="G83">
+        <v>-0.05298325418276137</v>
+      </c>
+      <c r="H83">
+        <v>0.03118292284914603</v>
+      </c>
+      <c r="I83">
+        <v>-0.02384741091934074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.218178864210879</v>
+        <v>0.2252707707656406</v>
       </c>
       <c r="C85">
-        <v>-0.05843166704093783</v>
+        <v>-0.06846256314870769</v>
       </c>
       <c r="D85">
-        <v>0.07930746351431085</v>
+        <v>-0.09345491175804468</v>
       </c>
       <c r="E85">
-        <v>0.07603416722591859</v>
+        <v>-0.003382026979314512</v>
       </c>
       <c r="F85">
-        <v>0.213967316741929</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1182832233863236</v>
+      </c>
+      <c r="G85">
+        <v>0.1980345490535019</v>
+      </c>
+      <c r="H85">
+        <v>0.009177621682601436</v>
+      </c>
+      <c r="I85">
+        <v>0.02479674574272091</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02453896404004706</v>
+        <v>0.01780816631822647</v>
       </c>
       <c r="C86">
-        <v>0.007813986326627215</v>
+        <v>-0.004270103606623565</v>
       </c>
       <c r="D86">
-        <v>0.0617657316855279</v>
+        <v>-0.04197014467550354</v>
       </c>
       <c r="E86">
-        <v>0.01893124296513484</v>
+        <v>0.003235274689900901</v>
       </c>
       <c r="F86">
-        <v>-0.0797747696133073</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01263255187103728</v>
+      </c>
+      <c r="G86">
+        <v>-0.07606951815830845</v>
+      </c>
+      <c r="H86">
+        <v>0.06154976301692693</v>
+      </c>
+      <c r="I86">
+        <v>-0.01784444602645337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01762026332675535</v>
+        <v>0.02622415372384106</v>
       </c>
       <c r="C87">
-        <v>-0.03639668883651832</v>
+        <v>-0.00370675161155746</v>
       </c>
       <c r="D87">
-        <v>-0.0453422690459525</v>
+        <v>0.01117557145448889</v>
       </c>
       <c r="E87">
-        <v>-0.03735205813605877</v>
+        <v>-0.002039438769090529</v>
       </c>
       <c r="F87">
-        <v>-0.09699213990182579</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.006065186806505457</v>
+      </c>
+      <c r="G87">
+        <v>-0.1044616274735272</v>
+      </c>
+      <c r="H87">
+        <v>0.004468529771815551</v>
+      </c>
+      <c r="I87">
+        <v>0.01621798115790588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01281256164940293</v>
+        <v>0.03234544626586227</v>
       </c>
       <c r="C88">
-        <v>-0.01297520231280068</v>
+        <v>-0.008378413168067037</v>
       </c>
       <c r="D88">
-        <v>-0.004989299649295638</v>
+        <v>0.00688306163234511</v>
       </c>
       <c r="E88">
-        <v>0.01943249830204295</v>
+        <v>0.002150777476425955</v>
       </c>
       <c r="F88">
-        <v>-0.0009991097506209213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0134194150955213</v>
+      </c>
+      <c r="G88">
+        <v>0.006739698896827914</v>
+      </c>
+      <c r="H88">
+        <v>0.01613402838166333</v>
+      </c>
+      <c r="I88">
+        <v>-0.06544954011153151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.09732282406495731</v>
+        <v>0.1615593710832078</v>
       </c>
       <c r="C89">
-        <v>-0.1351126470034478</v>
+        <v>0.03341374107364504</v>
       </c>
       <c r="D89">
-        <v>-0.2550556951054057</v>
+        <v>0.3591238436847802</v>
       </c>
       <c r="E89">
-        <v>-0.2091246488420628</v>
+        <v>-0.1156090711463964</v>
       </c>
       <c r="F89">
-        <v>0.009735334078152826</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1007496187546842</v>
+      </c>
+      <c r="G89">
+        <v>-0.0049993228605536</v>
+      </c>
+      <c r="H89">
+        <v>0.0977515786559524</v>
+      </c>
+      <c r="I89">
+        <v>-0.005598541533709024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.08093808776065645</v>
+        <v>0.1141807019436891</v>
       </c>
       <c r="C90">
-        <v>-0.1359843467669716</v>
+        <v>0.0279554344388323</v>
       </c>
       <c r="D90">
-        <v>-0.261476729245549</v>
+        <v>0.3060564705157697</v>
       </c>
       <c r="E90">
-        <v>-0.1442041944171935</v>
+        <v>-0.0774191412542355</v>
       </c>
       <c r="F90">
-        <v>0.0161445413177731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.08992507868340537</v>
+      </c>
+      <c r="G90">
+        <v>0.03135119691669559</v>
+      </c>
+      <c r="H90">
+        <v>0.06598524566049198</v>
+      </c>
+      <c r="I90">
+        <v>-0.006326417969017633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2763252486702907</v>
+        <v>0.2638161278979099</v>
       </c>
       <c r="C91">
-        <v>-0.06469972075244249</v>
+        <v>-0.08666910549567888</v>
       </c>
       <c r="D91">
-        <v>0.106202487303846</v>
+        <v>-0.1073014330262042</v>
       </c>
       <c r="E91">
-        <v>0.07760536421414521</v>
+        <v>-0.007380386372450153</v>
       </c>
       <c r="F91">
-        <v>0.2573635319325227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1157438124709229</v>
+      </c>
+      <c r="G91">
+        <v>0.2577472776521276</v>
+      </c>
+      <c r="H91">
+        <v>0.02867929953510804</v>
+      </c>
+      <c r="I91">
+        <v>0.06383758300931194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1277892471761293</v>
+        <v>0.194456877422742</v>
       </c>
       <c r="C92">
-        <v>-0.1109268713214867</v>
+        <v>-0.03710206501276634</v>
       </c>
       <c r="D92">
-        <v>-0.2765859385034289</v>
+        <v>0.3174936005344658</v>
       </c>
       <c r="E92">
-        <v>-0.1375211879110799</v>
+        <v>-0.06582528989484569</v>
       </c>
       <c r="F92">
-        <v>0.03160202388658608</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08747361326412313</v>
+      </c>
+      <c r="G92">
+        <v>0.09242321125933549</v>
+      </c>
+      <c r="H92">
+        <v>0.1759928823961366</v>
+      </c>
+      <c r="I92">
+        <v>-0.00785391524224659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.08200175409262382</v>
+        <v>0.141828705066869</v>
       </c>
       <c r="C93">
-        <v>-0.1328196824753345</v>
+        <v>0.02300633293474673</v>
       </c>
       <c r="D93">
-        <v>-0.3178855600038194</v>
+        <v>0.3643912694744896</v>
       </c>
       <c r="E93">
-        <v>-0.1934534556087707</v>
+        <v>-0.1028977894008208</v>
       </c>
       <c r="F93">
-        <v>0.05486681601380265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1388903278864437</v>
+      </c>
+      <c r="G93">
+        <v>0.03353140158239018</v>
+      </c>
+      <c r="H93">
+        <v>0.009270375670595635</v>
+      </c>
+      <c r="I93">
+        <v>-0.02641724916512625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.261013170182789</v>
+        <v>0.2858667864849213</v>
       </c>
       <c r="C94">
-        <v>-0.1136041311489311</v>
+        <v>-0.0739803947759187</v>
       </c>
       <c r="D94">
-        <v>-0.003616893704272354</v>
+        <v>-0.02938220694849691</v>
       </c>
       <c r="E94">
-        <v>0.02225395589888352</v>
+        <v>-0.03909703424954802</v>
       </c>
       <c r="F94">
-        <v>0.3040719950106768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.134701004267791</v>
+      </c>
+      <c r="G94">
+        <v>0.2972188060165084</v>
+      </c>
+      <c r="H94">
+        <v>0.01163298965251124</v>
+      </c>
+      <c r="I94">
+        <v>0.2024340286194265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1429491341296114</v>
+        <v>0.1128597652136683</v>
       </c>
       <c r="C95">
-        <v>0.01128042002838981</v>
+        <v>-0.05923057461235328</v>
       </c>
       <c r="D95">
-        <v>0.1971599291100636</v>
+        <v>-0.09478765000395731</v>
       </c>
       <c r="E95">
-        <v>0.05270438017555108</v>
+        <v>-0.06970436142863928</v>
       </c>
       <c r="F95">
-        <v>0.2821130471413408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.0391665686640364</v>
+      </c>
+      <c r="G95">
+        <v>0.04659757690370015</v>
+      </c>
+      <c r="H95">
+        <v>0.1219157350514946</v>
+      </c>
+      <c r="I95">
+        <v>-0.8513515160499033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1918300868093669</v>
+        <v>0.2058554856301569</v>
       </c>
       <c r="C98">
-        <v>-0.06258533115581748</v>
+        <v>-0.04744770828678304</v>
       </c>
       <c r="D98">
-        <v>-0.01862244808377797</v>
+        <v>0.01025838758335142</v>
       </c>
       <c r="E98">
-        <v>-0.1106225523139813</v>
+        <v>-0.07071623107043511</v>
       </c>
       <c r="F98">
-        <v>-0.1470908507803064</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01008403146232079</v>
+      </c>
+      <c r="G98">
+        <v>-0.2314141163159113</v>
+      </c>
+      <c r="H98">
+        <v>-0.3640371612199987</v>
+      </c>
+      <c r="I98">
+        <v>0.002682077998019014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004286083671870064</v>
+        <v>0.01688037571072752</v>
       </c>
       <c r="C101">
-        <v>-0.01768171120384787</v>
+        <v>-0.001763049057053522</v>
       </c>
       <c r="D101">
-        <v>0.05919090001189022</v>
+        <v>-0.02292305065630975</v>
       </c>
       <c r="E101">
-        <v>0.04261654994953794</v>
+        <v>0.005906300669651527</v>
       </c>
       <c r="F101">
-        <v>-0.03519492580698534</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04085677477535501</v>
+      </c>
+      <c r="G101">
+        <v>-0.07043730242287563</v>
+      </c>
+      <c r="H101">
+        <v>0.1224920539035901</v>
+      </c>
+      <c r="I101">
+        <v>0.01867494495126572</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.08873288188052636</v>
+        <v>0.1101020061734034</v>
       </c>
       <c r="C102">
-        <v>-0.02321908954156042</v>
+        <v>-0.01919801150192543</v>
       </c>
       <c r="D102">
-        <v>0.04462044088359897</v>
+        <v>-0.04188232291041043</v>
       </c>
       <c r="E102">
-        <v>0.05484445048868672</v>
+        <v>0.003874668820299469</v>
       </c>
       <c r="F102">
-        <v>0.1105149520404204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06019790650308497</v>
+      </c>
+      <c r="G102">
+        <v>0.1139246718665594</v>
+      </c>
+      <c r="H102">
+        <v>0.004610448558737332</v>
+      </c>
+      <c r="I102">
+        <v>0.003540724411516764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01882343904126646</v>
+        <v>0.02554036637278376</v>
       </c>
       <c r="C103">
-        <v>-0.0117959592174204</v>
+        <v>-0.007358407370116894</v>
       </c>
       <c r="D103">
-        <v>0.001194893146877013</v>
+        <v>-0.006357218967389017</v>
       </c>
       <c r="E103">
-        <v>0.006813872877047802</v>
+        <v>0.008083890977212127</v>
       </c>
       <c r="F103">
-        <v>0.03296656605071263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01696402298464145</v>
+      </c>
+      <c r="G103">
+        <v>0.02278486184411264</v>
+      </c>
+      <c r="H103">
+        <v>0.01373653952772037</v>
+      </c>
+      <c r="I103">
+        <v>-0.00415666147571693</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1793882781614836</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9621958381115121</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06310484205232435</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01497269268482455</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1633221814345675</v>
+      </c>
+      <c r="G104">
+        <v>0.02636006640120205</v>
+      </c>
+      <c r="H104">
+        <v>0.007841700257190309</v>
+      </c>
+      <c r="I104">
+        <v>-0.007751373966329691</v>
       </c>
     </row>
   </sheetData>
